--- a/data/trans_orig/P19C03-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P19C03-Clase-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>112179</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>94829</v>
+        <v>94573</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>130932</v>
+        <v>133809</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2903918502641136</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.245479893609551</v>
+        <v>0.2448168809344867</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3389372901286684</v>
+        <v>0.3463850514964272</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>85</v>
@@ -765,19 +765,19 @@
         <v>87421</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>71961</v>
+        <v>73264</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>102720</v>
+        <v>103664</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3258506365451191</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2682246551378743</v>
+        <v>0.2730805936218263</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3828751923103914</v>
+        <v>0.3863913951271999</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>192</v>
@@ -786,19 +786,19 @@
         <v>199601</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175421</v>
+        <v>175368</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223179</v>
+        <v>223195</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3049248370861796</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2679865328079724</v>
+        <v>0.2679046888258668</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3409448065978522</v>
+        <v>0.3409687991838362</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>274123</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>255370</v>
+        <v>252493</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>291473</v>
+        <v>291729</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7096081497358864</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.6610627098713316</v>
+        <v>0.6536149485035729</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.754520106390449</v>
+        <v>0.7551831190655134</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -836,19 +836,19 @@
         <v>180866</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>165567</v>
+        <v>164623</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>196326</v>
+        <v>195023</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.674149363454881</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6171248076896085</v>
+        <v>0.6136086048728</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7317753448621257</v>
+        <v>0.7269194063781738</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>439</v>
@@ -857,19 +857,19 @@
         <v>454989</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>431411</v>
+        <v>431395</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>479169</v>
+        <v>479222</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6950751629138203</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6590551934021478</v>
+        <v>0.6590312008161638</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7320134671920276</v>
+        <v>0.7320953111741333</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>99954</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>84390</v>
+        <v>82744</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>119192</v>
+        <v>117676</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3329540063772383</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2811091329242399</v>
+        <v>0.2756263976187387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3970366506393699</v>
+        <v>0.391984748689237</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>121</v>
@@ -982,19 +982,19 @@
         <v>123663</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105922</v>
+        <v>106732</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>140683</v>
+        <v>142571</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3707315441637896</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3175448006055017</v>
+        <v>0.3199738305864748</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4217560995990914</v>
+        <v>0.427416942423334</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>215</v>
@@ -1003,19 +1003,19 @@
         <v>223618</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>199882</v>
+        <v>199570</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>246711</v>
+        <v>248576</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3528370069466544</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3153863805960183</v>
+        <v>0.314893118845581</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3892753511471751</v>
+        <v>0.3922187219086098</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>200251</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>181013</v>
+        <v>182529</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>215815</v>
+        <v>217461</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6670459936227617</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.60296334936063</v>
+        <v>0.6080152513107629</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.71889086707576</v>
+        <v>0.724373602381261</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>204</v>
@@ -1053,19 +1053,19 @@
         <v>209902</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>192882</v>
+        <v>190994</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>227643</v>
+        <v>226833</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6292684558362104</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.578243900400909</v>
+        <v>0.5725830575766663</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6824551993944986</v>
+        <v>0.6800261694135252</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>392</v>
@@ -1074,19 +1074,19 @@
         <v>410152</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>387059</v>
+        <v>385194</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>433888</v>
+        <v>434200</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6471629930533456</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.610724648852825</v>
+        <v>0.6077812780913903</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6846136194039818</v>
+        <v>0.6851068811544191</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>151623</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>132247</v>
+        <v>132191</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>172205</v>
+        <v>171143</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3523926602242199</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3073607723876267</v>
+        <v>0.3072304789854358</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.400228285857458</v>
+        <v>0.3977597821227269</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -1199,19 +1199,19 @@
         <v>44648</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>33705</v>
+        <v>34153</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>56305</v>
+        <v>56315</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3187569214369228</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2406352333924713</v>
+        <v>0.2438305032296602</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4019854315072802</v>
+        <v>0.4020546911534335</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>195</v>
@@ -1220,19 +1220,19 @@
         <v>196271</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>175443</v>
+        <v>173681</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>219350</v>
+        <v>217409</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3441320870349768</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3076132476604678</v>
+        <v>0.3045249150137521</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3845991779346669</v>
+        <v>0.3811950219262137</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>278644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>258062</v>
+        <v>259124</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>298020</v>
+        <v>298076</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.6476073397757801</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5997717141425413</v>
+        <v>0.602240217877273</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6926392276123731</v>
+        <v>0.692769521014564</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>95</v>
@@ -1270,19 +1270,19 @@
         <v>95420</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>83763</v>
+        <v>83753</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>106363</v>
+        <v>105915</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6812430785630772</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5980145684927191</v>
+        <v>0.5979453088465666</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7593647666075286</v>
+        <v>0.7561694967703398</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>368</v>
@@ -1291,19 +1291,19 @@
         <v>374064</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>350985</v>
+        <v>352926</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>394892</v>
+        <v>396654</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6558679129650231</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.615400822065333</v>
+        <v>0.6188049780737862</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6923867523395318</v>
+        <v>0.6954750849862479</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>271701</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>248223</v>
+        <v>246552</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>302629</v>
+        <v>299525</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3121522474581481</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2851780989419327</v>
+        <v>0.2832581735668198</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3476839831019566</v>
+        <v>0.34411841057445</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>204</v>
@@ -1416,19 +1416,19 @@
         <v>213630</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>187562</v>
+        <v>191337</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>237203</v>
+        <v>237578</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3582899554038805</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.314570249388159</v>
+        <v>0.3209019738349669</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3978254581220578</v>
+        <v>0.3984543159300407</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>471</v>
@@ -1437,19 +1437,19 @@
         <v>485331</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>450462</v>
+        <v>448579</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>521306</v>
+        <v>522363</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3309088180414871</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3071343506118576</v>
+        <v>0.3058505892715838</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3554370840018586</v>
+        <v>0.3561580500538101</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>598712</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>567784</v>
+        <v>570888</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>622190</v>
+        <v>623861</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6878477525418519</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6523160168980433</v>
+        <v>0.6558815894255501</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.714821901058067</v>
+        <v>0.7167418264331801</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>375</v>
@@ -1487,19 +1487,19 @@
         <v>382619</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>359046</v>
+        <v>358671</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>408687</v>
+        <v>404912</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6417100445961195</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6021745418779421</v>
+        <v>0.6015456840699592</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6854297506118409</v>
+        <v>0.679098026165033</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>972</v>
@@ -1508,19 +1508,19 @@
         <v>981331</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>945356</v>
+        <v>944299</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1016200</v>
+        <v>1018083</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6690911819585129</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6445629159981414</v>
+        <v>0.6438419499461899</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6928656493881424</v>
+        <v>0.6941494107284163</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>82954</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>68392</v>
+        <v>69036</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>99057</v>
+        <v>98410</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3345917426196823</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.275854636051335</v>
+        <v>0.278453048215956</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3995404062235997</v>
+        <v>0.3969316573479277</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>148</v>
@@ -1633,19 +1633,19 @@
         <v>155323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>135919</v>
+        <v>134202</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>176467</v>
+        <v>176039</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3405606783902942</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2980164584597825</v>
+        <v>0.2942519703532144</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3869213334409667</v>
+        <v>0.3859837224877362</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>226</v>
@@ -1654,19 +1654,19 @@
         <v>238277</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>212457</v>
+        <v>214901</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>264002</v>
+        <v>264829</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3384586236546642</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3017828673475313</v>
+        <v>0.3052543369405351</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3749990667149571</v>
+        <v>0.3761732032105057</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>164973</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>148870</v>
+        <v>149517</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>179535</v>
+        <v>178891</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6654082573803177</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6004595937764002</v>
+        <v>0.6030683426520722</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.724145363948665</v>
+        <v>0.7215469517840439</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>284</v>
@@ -1704,19 +1704,19 @@
         <v>300757</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>279613</v>
+        <v>280041</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>320161</v>
+        <v>321878</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.6594393216097058</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6130786665590333</v>
+        <v>0.6140162775122636</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7019835415402175</v>
+        <v>0.7057480296467855</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>447</v>
@@ -1725,19 +1725,19 @@
         <v>465730</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>440005</v>
+        <v>439178</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>491550</v>
+        <v>489106</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6615413763453358</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6250009332850429</v>
+        <v>0.6238267967894942</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6982171326524687</v>
+        <v>0.6947456630594648</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>64356</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>50841</v>
+        <v>52157</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>77007</v>
+        <v>77764</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3032324237404421</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2395540065565583</v>
+        <v>0.2457522208119905</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3628418607296496</v>
+        <v>0.3664099592838194</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>254</v>
@@ -1850,19 +1850,19 @@
         <v>254119</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>228660</v>
+        <v>228215</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>282187</v>
+        <v>282342</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2687342826366674</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2418104399994463</v>
+        <v>0.2413405381592718</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2984157946839636</v>
+        <v>0.2985797285054622</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>322</v>
@@ -1871,19 +1871,19 @@
         <v>318475</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>291682</v>
+        <v>287232</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>351276</v>
+        <v>351529</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.275057779643312</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2519173067485053</v>
+        <v>0.2480741928465216</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3033866675479798</v>
+        <v>0.3036053496782328</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>147877</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>135226</v>
+        <v>134469</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161392</v>
+        <v>160076</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6967675762595579</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6371581392703504</v>
+        <v>0.6335900407161805</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7604459934434417</v>
+        <v>0.7542477791880094</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>687</v>
@@ -1921,19 +1921,19 @@
         <v>691497</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>663429</v>
+        <v>663274</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>716956</v>
+        <v>717401</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7312657173633326</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7015842053160365</v>
+        <v>0.7014202714945379</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7581895600005538</v>
+        <v>0.7586594618407283</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>838</v>
@@ -1942,19 +1942,19 @@
         <v>839374</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>806573</v>
+        <v>806320</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>866167</v>
+        <v>870617</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.724942220356688</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6966133324520202</v>
+        <v>0.6963946503217674</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7480826932514947</v>
+        <v>0.7519258071534786</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>782768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>734122</v>
+        <v>736854</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>833743</v>
+        <v>830100</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3198434638449478</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.299966216138289</v>
+        <v>0.3010826990977885</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3406718529612479</v>
+        <v>0.3391835339211705</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>856</v>
@@ -2067,19 +2067,19 @@
         <v>878804</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>829156</v>
+        <v>833064</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>927330</v>
+        <v>929804</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3207473931673344</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3026267531097215</v>
+        <v>0.3040531281407023</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3384582749427988</v>
+        <v>0.33936131330113</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1621</v>
@@ -2088,19 +2088,19 @@
         <v>1661572</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1598750</v>
+        <v>1594869</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1728818</v>
+        <v>1727654</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3203209155895066</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3082099358735537</v>
+        <v>0.3074616556067193</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3332845655101696</v>
+        <v>0.3330602300974797</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>1664580</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1613605</v>
+        <v>1617248</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1713226</v>
+        <v>1710494</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6801565361550522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6593281470387522</v>
+        <v>0.6608164660788304</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.700033783861711</v>
+        <v>0.6989173009022115</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1822</v>
@@ -2138,19 +2138,19 @@
         <v>1861060</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1812534</v>
+        <v>1810060</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1910708</v>
+        <v>1906800</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.6792526068326656</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6615417250572011</v>
+        <v>0.66063868669887</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.6973732468902785</v>
+        <v>0.6959468718592977</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3456</v>
@@ -2159,19 +2159,19 @@
         <v>3525640</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3458394</v>
+        <v>3459558</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>3588462</v>
+        <v>3592343</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.6796790844104934</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6667154344898305</v>
+        <v>0.6669397699025195</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6917900641264464</v>
+        <v>0.6925383443932804</v>
       </c>
     </row>
     <row r="24">
@@ -2505,19 +2505,19 @@
         <v>143051</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>121626</v>
+        <v>121706</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>163028</v>
+        <v>165861</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3618392361142767</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.307646046381264</v>
+        <v>0.3078476679774624</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4123697040636767</v>
+        <v>0.4195359818852107</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>73</v>
@@ -2526,19 +2526,19 @@
         <v>78560</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>64520</v>
+        <v>65064</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>95632</v>
+        <v>96452</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2690117192449598</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2209335494147943</v>
+        <v>0.2227976535220841</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3274701704678562</v>
+        <v>0.3302773937145668</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>205</v>
@@ -2547,19 +2547,19 @@
         <v>221611</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>195770</v>
+        <v>196875</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>245112</v>
+        <v>247104</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3224014795174501</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2848084155272501</v>
+        <v>0.2864159391511927</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3565903772503883</v>
+        <v>0.3594895077078321</v>
       </c>
     </row>
     <row r="5">
@@ -2576,19 +2576,19 @@
         <v>252293</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>232316</v>
+        <v>229483</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>273718</v>
+        <v>273638</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.6381607638857233</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.5876302959363234</v>
+        <v>0.5804640181147893</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.6923539536187361</v>
+        <v>0.6921523320225378</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>191</v>
@@ -2597,19 +2597,19 @@
         <v>213472</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>196400</v>
+        <v>195580</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>227512</v>
+        <v>226968</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7309882807550402</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6725298295321437</v>
+        <v>0.6697226062854331</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7790664505852056</v>
+        <v>0.7772023464779158</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>424</v>
@@ -2618,19 +2618,19 @@
         <v>465765</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>442264</v>
+        <v>440272</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>491606</v>
+        <v>490501</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6775985204825499</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6434096227496119</v>
+        <v>0.6405104922921678</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7151915844727503</v>
+        <v>0.7135840608488072</v>
       </c>
     </row>
     <row r="6">
@@ -2722,19 +2722,19 @@
         <v>106433</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>88237</v>
+        <v>88492</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>125504</v>
+        <v>124733</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2780363621034663</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2305026304486873</v>
+        <v>0.231167650931387</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3278550397369348</v>
+        <v>0.3258404952457372</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>86</v>
@@ -2743,19 +2743,19 @@
         <v>95144</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>78589</v>
+        <v>78720</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>112608</v>
+        <v>112013</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3034885172125084</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2506804418648368</v>
+        <v>0.2511007041509934</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3591941601852579</v>
+        <v>0.3572973792855451</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>187</v>
@@ -2764,19 +2764,19 @@
         <v>201577</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>175634</v>
+        <v>176253</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>225014</v>
+        <v>226844</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2894958246065355</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2522371736227153</v>
+        <v>0.2531257774727411</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3231549062754272</v>
+        <v>0.3257818675723211</v>
       </c>
     </row>
     <row r="8">
@@ -2793,19 +2793,19 @@
         <v>276371</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>257300</v>
+        <v>258071</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>294567</v>
+        <v>294312</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7219636378965337</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6721449602630651</v>
+        <v>0.6741595047542628</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7694973695513126</v>
+        <v>0.7688323490686129</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>196</v>
@@ -2814,19 +2814,19 @@
         <v>218357</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>200893</v>
+        <v>201488</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>234912</v>
+        <v>234781</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6965114827874915</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6408058398147424</v>
+        <v>0.6427026207144547</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7493195581351633</v>
+        <v>0.7488992958490064</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>437</v>
@@ -2835,19 +2835,19 @@
         <v>494728</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>471291</v>
+        <v>469461</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>520671</v>
+        <v>520052</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7105041753934646</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6768450937245726</v>
+        <v>0.6742181324276788</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7477628263772848</v>
+        <v>0.7468742225272588</v>
       </c>
     </row>
     <row r="9">
@@ -2939,19 +2939,19 @@
         <v>156485</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>136713</v>
+        <v>136800</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>178495</v>
+        <v>179508</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2922284624547425</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2553061212134441</v>
+        <v>0.2554680429956102</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3333308519659692</v>
+        <v>0.335223585965217</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>69</v>
@@ -2960,19 +2960,19 @@
         <v>72402</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>58122</v>
+        <v>56653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>87052</v>
+        <v>86297</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3008403365155079</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2415038604910727</v>
+        <v>0.2353999963416035</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3617133810614429</v>
+        <v>0.3585768299432862</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>218</v>
@@ -2981,19 +2981,19 @@
         <v>228887</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>202329</v>
+        <v>201088</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>253257</v>
+        <v>254715</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2948987872198307</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2606812537094029</v>
+        <v>0.2590833226626879</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3262978807266332</v>
+        <v>0.3281766932860998</v>
       </c>
     </row>
     <row r="11">
@@ -3010,19 +3010,19 @@
         <v>379003</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>356993</v>
+        <v>355980</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>398775</v>
+        <v>398688</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7077715375452575</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6666691480340309</v>
+        <v>0.6647764140347835</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7446938787865559</v>
+        <v>0.7445319570043898</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>157</v>
@@ -3031,19 +3031,19 @@
         <v>168264</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>153614</v>
+        <v>154369</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>182544</v>
+        <v>184013</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6991596634844921</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6382866189385571</v>
+        <v>0.6414231700567132</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.7584961395089274</v>
+        <v>0.7646000036583965</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>514</v>
@@ -3052,19 +3052,19 @@
         <v>547266</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>522896</v>
+        <v>521438</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>573824</v>
+        <v>575065</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7051012127801694</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6737021192733671</v>
+        <v>0.6718233067138998</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7393187462905983</v>
+        <v>0.740916677337312</v>
       </c>
     </row>
     <row r="12">
@@ -3156,19 +3156,19 @@
         <v>281403</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>252146</v>
+        <v>252592</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>311131</v>
+        <v>309421</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2895764885600854</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2594689241218159</v>
+        <v>0.2599282663786071</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3201678856861909</v>
+        <v>0.3184077084284258</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>216</v>
@@ -3177,19 +3177,19 @@
         <v>228394</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>205215</v>
+        <v>201968</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>256250</v>
+        <v>252799</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3272434730117328</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2940333259580115</v>
+        <v>0.2893812478819328</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3671562523359378</v>
+        <v>0.36221189075084</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>483</v>
@@ -3198,19 +3198,19 @@
         <v>509797</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>473394</v>
+        <v>472902</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>547471</v>
+        <v>551102</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3053211557902694</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2835192033326741</v>
+        <v>0.2832244473847224</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3278843670404967</v>
+        <v>0.330059292400832</v>
       </c>
     </row>
     <row r="14">
@@ -3227,19 +3227,19 @@
         <v>690373</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>660645</v>
+        <v>662355</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>719630</v>
+        <v>719184</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7104235114399146</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6798321143138093</v>
+        <v>0.6815922915715746</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7405310758781842</v>
+        <v>0.7400717336213936</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>430</v>
@@ -3248,19 +3248,19 @@
         <v>469538</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>441682</v>
+        <v>445133</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>492717</v>
+        <v>495964</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6727565269882672</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6328437476640622</v>
+        <v>0.63778810924916</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7059666740419885</v>
+        <v>0.7106187521180672</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1074</v>
@@ -3269,19 +3269,19 @@
         <v>1159910</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1122236</v>
+        <v>1118605</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1196313</v>
+        <v>1196805</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6946788442097306</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6721156329595029</v>
+        <v>0.6699407075991679</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7164807966673257</v>
+        <v>0.7167755526152773</v>
       </c>
     </row>
     <row r="15">
@@ -3373,19 +3373,19 @@
         <v>113631</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>97769</v>
+        <v>96017</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>134827</v>
+        <v>131981</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2817437384083347</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2424145034220255</v>
+        <v>0.2380709268466981</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3342997687590464</v>
+        <v>0.3272424565789843</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>170</v>
@@ -3394,19 +3394,19 @@
         <v>185970</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>164952</v>
+        <v>163873</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>212679</v>
+        <v>208592</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2776401144491111</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2462624577830853</v>
+        <v>0.2446514170399139</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3175156592505016</v>
+        <v>0.3114140781096553</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>277</v>
@@ -3415,19 +3415,19 @@
         <v>299600</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>271616</v>
+        <v>271432</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>330690</v>
+        <v>331930</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2791823631132399</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2531052714239171</v>
+        <v>0.252933941112282</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.30815296088705</v>
+        <v>0.3093083564433222</v>
       </c>
     </row>
     <row r="17">
@@ -3444,19 +3444,19 @@
         <v>289681</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>268485</v>
+        <v>271331</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>305543</v>
+        <v>307295</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7182562615916653</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6657002312409536</v>
+        <v>0.6727575434210157</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7575854965779746</v>
+        <v>0.7619290731533019</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>451</v>
@@ -3465,19 +3465,19 @@
         <v>483853</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>457144</v>
+        <v>461231</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>504871</v>
+        <v>505950</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7223598855508889</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6824843407494987</v>
+        <v>0.6885859218903448</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.753737542216915</v>
+        <v>0.7553485829600861</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>731</v>
@@ -3486,19 +3486,19 @@
         <v>773535</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>742445</v>
+        <v>741205</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>801519</v>
+        <v>801703</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7208176368867601</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.69184703911295</v>
+        <v>0.6906916435566778</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7468947285760829</v>
+        <v>0.7470660588877177</v>
       </c>
     </row>
     <row r="18">
@@ -3590,19 +3590,19 @@
         <v>72624</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>59216</v>
+        <v>58474</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>86877</v>
+        <v>87742</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3296744868181419</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2688111043034234</v>
+        <v>0.2654401127176791</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3943755480094364</v>
+        <v>0.3983055646165093</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>241</v>
@@ -3611,19 +3611,19 @@
         <v>250248</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>223324</v>
+        <v>223851</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>280775</v>
+        <v>280356</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2701104321023132</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2410498753289778</v>
+        <v>0.2416182803701093</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.30306031655888</v>
+        <v>0.3026082525683117</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>312</v>
@@ -3632,19 +3632,19 @@
         <v>322872</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>292476</v>
+        <v>287616</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>354508</v>
+        <v>350848</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.28155256431282</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2550462719014882</v>
+        <v>0.2508084536491275</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3091400479708175</v>
+        <v>0.3059487552810411</v>
       </c>
     </row>
     <row r="20">
@@ -3661,19 +3661,19 @@
         <v>147665</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>133412</v>
+        <v>132547</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>161073</v>
+        <v>161815</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6703255131818581</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6056244519905636</v>
+        <v>0.6016944353834907</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7311888956965766</v>
+        <v>0.7345598872823209</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>630</v>
@@ -3682,19 +3682,19 @@
         <v>676217</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>645690</v>
+        <v>646109</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>703141</v>
+        <v>702614</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.7298895678976869</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.69693968344112</v>
+        <v>0.6973917474316883</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7589501246710222</v>
+        <v>0.7583817196298906</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>778</v>
@@ -3703,19 +3703,19 @@
         <v>823883</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>792247</v>
+        <v>795907</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>854279</v>
+        <v>859139</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7184474356871799</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6908599520291825</v>
+        <v>0.694051244718958</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7449537280985118</v>
+        <v>0.7491915463508722</v>
       </c>
     </row>
     <row r="21">
@@ -3807,19 +3807,19 @@
         <v>873627</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>820122</v>
+        <v>829509</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>924479</v>
+        <v>924933</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3003173420107495</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2819244454859704</v>
+        <v>0.2851512479226413</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3177982517576874</v>
+        <v>0.3179541195197615</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>855</v>
@@ -3828,19 +3828,19 @@
         <v>910717</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>858931</v>
+        <v>855025</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>965446</v>
+        <v>965685</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2899986591063852</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2735083237488574</v>
+        <v>0.2722646417171244</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.3074259852198351</v>
+        <v>0.3075019983694536</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1682</v>
@@ -3849,19 +3849,19 @@
         <v>1784344</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1710994</v>
+        <v>1711385</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1852699</v>
+        <v>1864104</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2949606428338168</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2828355431207788</v>
+        <v>0.2829001824009871</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.3062599468614677</v>
+        <v>0.3081453037609196</v>
       </c>
     </row>
     <row r="23">
@@ -3878,19 +3878,19 @@
         <v>2035386</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1984534</v>
+        <v>1984080</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2088891</v>
+        <v>2079504</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.6996826579892506</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6822017482423126</v>
+        <v>0.6820458804802387</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7180755545140297</v>
+        <v>0.7148487520773589</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>2055</v>
@@ -3899,19 +3899,19 @@
         <v>2229702</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2174973</v>
+        <v>2174734</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2281488</v>
+        <v>2285394</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7100013408936148</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.6925740147801649</v>
+        <v>0.6924980016305464</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7264916762511426</v>
+        <v>0.7277353582828756</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3958</v>
@@ -3920,19 +3920,19 @@
         <v>4265088</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>4196733</v>
+        <v>4185328</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4338438</v>
+        <v>4338047</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7050393571661833</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.6937400531385322</v>
+        <v>0.6918546962390804</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7171644568792211</v>
+        <v>0.7170998175990129</v>
       </c>
     </row>
     <row r="24">
@@ -4266,19 +4266,19 @@
         <v>93846</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>75679</v>
+        <v>77937</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>111891</v>
+        <v>112526</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2421131948168452</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1952420813866202</v>
+        <v>0.2010694507587837</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2886648514396564</v>
+        <v>0.2903029976416604</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>67</v>
@@ -4287,19 +4287,19 @@
         <v>65941</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>52237</v>
+        <v>52352</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>80544</v>
+        <v>81809</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2087954454099048</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1654044936500869</v>
+        <v>0.1657685020275537</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2550334241338142</v>
+        <v>0.2590393628059299</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>152</v>
@@ -4308,19 +4308,19 @@
         <v>159787</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>136074</v>
+        <v>137757</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>183285</v>
+        <v>182968</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2271546633401541</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1934430162730601</v>
+        <v>0.1958367369474631</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2605592797158834</v>
+        <v>0.2601087714635492</v>
       </c>
     </row>
     <row r="5">
@@ -4337,19 +4337,19 @@
         <v>293768</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>275723</v>
+        <v>275088</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>311935</v>
+        <v>309677</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7578868051831548</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7113351485603435</v>
+        <v>0.7096970023583397</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8047579186133798</v>
+        <v>0.7989305492412162</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>237</v>
@@ -4358,19 +4358,19 @@
         <v>249875</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>235272</v>
+        <v>234007</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263579</v>
+        <v>263464</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7912045545900952</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7449665758661859</v>
+        <v>0.74096063719407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8345955063499131</v>
+        <v>0.8342314979724463</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>512</v>
@@ -4379,19 +4379,19 @@
         <v>543643</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>520145</v>
+        <v>520462</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>567356</v>
+        <v>565673</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7728453366598459</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7394407202841167</v>
+        <v>0.739891228536451</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.80655698372694</v>
+        <v>0.8041632630525369</v>
       </c>
     </row>
     <row r="6">
@@ -4483,19 +4483,19 @@
         <v>82521</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>66923</v>
+        <v>65582</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>100850</v>
+        <v>98891</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2605984590279327</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2113412238931361</v>
+        <v>0.20710682292811</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3184818691205995</v>
+        <v>0.3122947970691763</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>90</v>
@@ -4504,19 +4504,19 @@
         <v>95299</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>77768</v>
+        <v>79130</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>111627</v>
+        <v>113705</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2856907506974153</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2331359524159733</v>
+        <v>0.2372191284840287</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3346377377632506</v>
+        <v>0.3408674892240061</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>165</v>
@@ -4525,19 +4525,19 @@
         <v>177820</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>157013</v>
+        <v>156526</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>203124</v>
+        <v>202421</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2734710088701913</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2414716357682032</v>
+        <v>0.2407237097945579</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3123864784915683</v>
+        <v>0.3113060863356407</v>
       </c>
     </row>
     <row r="8">
@@ -4554,19 +4554,19 @@
         <v>234137</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>215808</v>
+        <v>217767</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>249735</v>
+        <v>251076</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7394015409720673</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6815181308794006</v>
+        <v>0.6877052029308238</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.788658776106864</v>
+        <v>0.7928931770718903</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>227</v>
@@ -4575,19 +4575,19 @@
         <v>238276</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>221948</v>
+        <v>219870</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>255807</v>
+        <v>254445</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7143092493025847</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6653622622367494</v>
+        <v>0.6591325107759939</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7668640475840267</v>
+        <v>0.7627808715159713</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>448</v>
@@ -4596,19 +4596,19 @@
         <v>472412</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>447108</v>
+        <v>447811</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>493219</v>
+        <v>493706</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7265289911298087</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6876135215084317</v>
+        <v>0.6886939136643598</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7585283642317968</v>
+        <v>0.7592762902054422</v>
       </c>
     </row>
     <row r="9">
@@ -4700,19 +4700,19 @@
         <v>120370</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>101960</v>
+        <v>100379</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>139802</v>
+        <v>137865</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2970559362567287</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2516217136907626</v>
+        <v>0.2477203750630351</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3450100348460154</v>
+        <v>0.340231373913482</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>36</v>
@@ -4721,19 +4721,19 @@
         <v>36041</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>26125</v>
+        <v>26192</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>47338</v>
+        <v>47393</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2585074236326388</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1873837516504413</v>
+        <v>0.1878615965570913</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3395360028079997</v>
+        <v>0.3399282215141168</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>150</v>
@@ -4742,19 +4742,19 @@
         <v>156412</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>136030</v>
+        <v>136725</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>179991</v>
+        <v>178512</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.287187836248093</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2497637193596715</v>
+        <v>0.251040906901922</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3304819562462906</v>
+        <v>0.32776504083809</v>
       </c>
     </row>
     <row r="11">
@@ -4771,19 +4771,19 @@
         <v>284841</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>265409</v>
+        <v>267346</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>303251</v>
+        <v>304832</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7029440637432713</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6549899651539849</v>
+        <v>0.659768626086518</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7483782863092376</v>
+        <v>0.7522796249369652</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>93</v>
@@ -4792,19 +4792,19 @@
         <v>103380</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>92083</v>
+        <v>92028</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>113296</v>
+        <v>113229</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7414925763673612</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6604639971920003</v>
+        <v>0.6600717784858832</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8126162483495587</v>
+        <v>0.8121384034429088</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>367</v>
@@ -4813,19 +4813,19 @@
         <v>388221</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>364642</v>
+        <v>366121</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>408603</v>
+        <v>407908</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.712812163751907</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6695180437537094</v>
+        <v>0.6722349591619099</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7502362806403284</v>
+        <v>0.748959093098078</v>
       </c>
     </row>
     <row r="12">
@@ -4917,19 +4917,19 @@
         <v>257870</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>233180</v>
+        <v>229137</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>285136</v>
+        <v>286735</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2931991283241452</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2651262514260892</v>
+        <v>0.2605295182258007</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3242000818398506</v>
+        <v>0.3260183212382727</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>221</v>
@@ -4938,19 +4938,19 @@
         <v>226078</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>201579</v>
+        <v>203221</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>251177</v>
+        <v>252503</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3305084024908829</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2946928246181211</v>
+        <v>0.2970928162514855</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3672010951177327</v>
+        <v>0.3691395987380777</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>467</v>
@@ -4959,19 +4959,19 @@
         <v>483948</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>447784</v>
+        <v>449009</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>519618</v>
+        <v>520937</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3095215590130515</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2863915871345157</v>
+        <v>0.2871754495038736</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3323349308795449</v>
+        <v>0.3331788807353046</v>
       </c>
     </row>
     <row r="14">
@@ -4988,19 +4988,19 @@
         <v>621635</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>594369</v>
+        <v>592770</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>646325</v>
+        <v>650368</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7068008716758548</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6757999181601495</v>
+        <v>0.6739816787617273</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7348737485739109</v>
+        <v>0.7394704817741996</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>443</v>
@@ -5009,19 +5009,19 @@
         <v>457953</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>432854</v>
+        <v>431528</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>482452</v>
+        <v>480810</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6694915975091171</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6327989048822671</v>
+        <v>0.6308604012619222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.7053071753818788</v>
+        <v>0.7029071837485145</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1037</v>
@@ -5030,19 +5030,19 @@
         <v>1079588</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1043918</v>
+        <v>1042599</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1115752</v>
+        <v>1114527</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6904784409869485</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6676650691204552</v>
+        <v>0.6668211192646951</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7136084128654845</v>
+        <v>0.712824550496126</v>
       </c>
     </row>
     <row r="15">
@@ -5134,19 +5134,19 @@
         <v>114735</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>96829</v>
+        <v>96362</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>135074</v>
+        <v>135490</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2698575689544321</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2277434342394052</v>
+        <v>0.2266447497081691</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3176946259352592</v>
+        <v>0.3186727578249959</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>157</v>
@@ -5155,19 +5155,19 @@
         <v>160123</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>139617</v>
+        <v>139753</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>181244</v>
+        <v>181832</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2872252801310705</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2504432536900496</v>
+        <v>0.2506862602561493</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.325112070926651</v>
+        <v>0.3261667678458816</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>267</v>
@@ -5176,19 +5176,19 @@
         <v>274858</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>248146</v>
+        <v>246625</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>300190</v>
+        <v>303122</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.279710685595653</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2525270896860121</v>
+        <v>0.2509794039256268</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3054905989847761</v>
+        <v>0.3084738253285998</v>
       </c>
     </row>
     <row r="17">
@@ -5205,19 +5205,19 @@
         <v>310434</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>290095</v>
+        <v>289679</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>328340</v>
+        <v>328807</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7301424310455679</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.6823053740647408</v>
+        <v>0.6813272421750042</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7722565657605948</v>
+        <v>0.7733552502918311</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>377</v>
@@ -5226,19 +5226,19 @@
         <v>397358</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>376237</v>
+        <v>375649</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>417864</v>
+        <v>417728</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7127747198689295</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.6748879290733492</v>
+        <v>0.6738332321541184</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7495567463099511</v>
+        <v>0.7493137397438507</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>676</v>
@@ -5247,19 +5247,19 @@
         <v>707792</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>682460</v>
+        <v>679528</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>734504</v>
+        <v>736025</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.720289314404347</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.6945094010152238</v>
+        <v>0.6915261746714002</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7474729103139879</v>
+        <v>0.7490205960743731</v>
       </c>
     </row>
     <row r="18">
@@ -5351,19 +5351,19 @@
         <v>62743</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>49849</v>
+        <v>49232</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>78322</v>
+        <v>77693</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2597539718731928</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2063750627964257</v>
+        <v>0.2038177520975613</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3242508217912551</v>
+        <v>0.3216458461377106</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>153</v>
@@ -5372,19 +5372,19 @@
         <v>163776</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>139026</v>
+        <v>142371</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>187088</v>
+        <v>188628</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.1984465424446442</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1684571659554431</v>
+        <v>0.1725106059804426</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2266941798776395</v>
+        <v>0.228560272195852</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>212</v>
@@ -5393,19 +5393,19 @@
         <v>226519</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>202011</v>
+        <v>198888</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>256616</v>
+        <v>252812</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2123274749439722</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1893554728732181</v>
+        <v>0.1864281202565151</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.2405386940364531</v>
+        <v>0.2369737743729883</v>
       </c>
     </row>
     <row r="20">
@@ -5422,19 +5422,19 @@
         <v>178805</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>163226</v>
+        <v>163855</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>191699</v>
+        <v>192316</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7402460281268073</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6757491782087449</v>
+        <v>0.6783541538622895</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7936249372035743</v>
+        <v>0.7961822479024387</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>615</v>
@@ -5443,19 +5443,19 @@
         <v>661513</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>638201</v>
+        <v>636661</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>686263</v>
+        <v>682918</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8015534575553558</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.7733058201223607</v>
+        <v>0.7714397278041482</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8315428340445571</v>
+        <v>0.8274893940195575</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>786</v>
@@ -5464,19 +5464,19 @@
         <v>840318</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>810221</v>
+        <v>814025</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>864826</v>
+        <v>867949</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.7876725250560278</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.7594613059635471</v>
+        <v>0.7630262256270118</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8106445271267819</v>
+        <v>0.8135718797434851</v>
       </c>
     </row>
     <row r="21">
@@ -5568,19 +5568,19 @@
         <v>732086</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>683371</v>
+        <v>686051</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>778208</v>
+        <v>778783</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.275665260000087</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2573217099080121</v>
+        <v>0.2583311886016141</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2930326372008237</v>
+        <v>0.2932490027341147</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>724</v>
@@ -5589,19 +5589,19 @@
         <v>747258</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>699134</v>
+        <v>700787</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>794162</v>
+        <v>794138</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2616804080381527</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2448278335871015</v>
+        <v>0.2454069200328157</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2781054439816888</v>
+        <v>0.278097282736362</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1413</v>
@@ -5610,19 +5610,19 @@
         <v>1479344</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1416294</v>
+        <v>1413235</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1548786</v>
+        <v>1548285</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2684192031431934</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.256979232515866</v>
+        <v>0.2564242177557141</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2810192257175702</v>
+        <v>0.2809282990624398</v>
       </c>
     </row>
     <row r="23">
@@ -5639,19 +5639,19 @@
         <v>1923619</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1877497</v>
+        <v>1876922</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1972334</v>
+        <v>1969654</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.724334739999913</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7069673627991759</v>
+        <v>0.7067509972658853</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.7426782900919877</v>
+        <v>0.7416688113983859</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1992</v>
@@ -5660,19 +5660,19 @@
         <v>2108355</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2061451</v>
+        <v>2061475</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2156479</v>
+        <v>2154826</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.7383195919618473</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.7218945560183112</v>
+        <v>0.7219027172636384</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.7551721664128984</v>
+        <v>0.7545930799671844</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>3826</v>
@@ -5681,19 +5681,19 @@
         <v>4031974</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>3962532</v>
+        <v>3963033</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>4095024</v>
+        <v>4098083</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.7315807968568067</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.7189807742824299</v>
+        <v>0.7190717009375601</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.7430207674841338</v>
+        <v>0.7435757822442858</v>
       </c>
     </row>
     <row r="24">
@@ -6027,19 +6027,19 @@
         <v>93938</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>76920</v>
+        <v>73733</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>118598</v>
+        <v>113983</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1735526316024831</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1421127013869134</v>
+        <v>0.1362233084814251</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2191141350880966</v>
+        <v>0.2105869408912577</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>122</v>
@@ -6048,19 +6048,19 @@
         <v>84482</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>69694</v>
+        <v>70848</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>99138</v>
+        <v>98761</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.1755198004581047</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.1447951503699534</v>
+        <v>0.1471934642554512</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.2059675456675952</v>
+        <v>0.2051851036800911</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>210</v>
@@ -6069,19 +6069,19 @@
         <v>178420</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>154751</v>
+        <v>156225</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>204598</v>
+        <v>204736</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.1744785654736083</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1513325475758695</v>
+        <v>0.1527743183976823</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2000786943164534</v>
+        <v>0.2002129482891365</v>
       </c>
     </row>
     <row r="5">
@@ -6098,19 +6098,19 @@
         <v>447325</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>422665</v>
+        <v>427280</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>464343</v>
+        <v>467530</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.8264473683975168</v>
+        <v>0.8264473683975169</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7808858649119035</v>
+        <v>0.7894130591087424</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8578872986130864</v>
+        <v>0.8637766915185751</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>553</v>
@@ -6119,19 +6119,19 @@
         <v>396845</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>382189</v>
+        <v>382566</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>411633</v>
+        <v>410479</v>
       </c>
       <c r="N5" s="6" t="n">
-        <v>0.8244801995418952</v>
+        <v>0.8244801995418953</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.7940324543324048</v>
+        <v>0.7948148963199091</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.8552048496300466</v>
+        <v>0.852806535744549</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>1010</v>
@@ -6140,19 +6140,19 @@
         <v>844170</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>817992</v>
+        <v>817854</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>867839</v>
+        <v>866365</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.8255214345263916</v>
+        <v>0.8255214345263917</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7999213056835464</v>
+        <v>0.7997870517108635</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8486674524241306</v>
+        <v>0.8472256816023176</v>
       </c>
     </row>
     <row r="6">
@@ -6244,19 +6244,19 @@
         <v>74112</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>57833</v>
+        <v>58278</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>93136</v>
+        <v>92309</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1546156316539908</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1206535385564567</v>
+        <v>0.1215816511894052</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.1943032549216241</v>
+        <v>0.1925774576501949</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>108</v>
@@ -6265,19 +6265,19 @@
         <v>72876</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>60257</v>
+        <v>61628</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>87289</v>
+        <v>87630</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1743787825115037</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1441833746108264</v>
+        <v>0.1474630446217881</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2088649247022414</v>
+        <v>0.2096804715847008</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>177</v>
@@ -6286,19 +6286,19 @@
         <v>146989</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>126729</v>
+        <v>125908</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>169600</v>
+        <v>171012</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1638208659398407</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1412406205464085</v>
+        <v>0.1403257929321134</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.1890218139266714</v>
+        <v>0.1905954891829742</v>
       </c>
     </row>
     <row r="8">
@@ -6315,19 +6315,19 @@
         <v>405220</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>386196</v>
+        <v>387023</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>421499</v>
+        <v>421054</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.8453843683460093</v>
+        <v>0.8453843683460094</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.8056967450783757</v>
+        <v>0.807422542349805</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8793464614435432</v>
+        <v>0.8784183488105948</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>474</v>
@@ -6336,19 +6336,19 @@
         <v>345044</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>330631</v>
+        <v>330290</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>357663</v>
+        <v>356292</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.825621217488496</v>
+        <v>0.8256212174884962</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.7911350752977588</v>
+        <v>0.7903195284152992</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.8558166253891736</v>
+        <v>0.8525369553782117</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>882</v>
@@ -6357,19 +6357,19 @@
         <v>750264</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>727653</v>
+        <v>726241</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>770524</v>
+        <v>771345</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.8361791340601592</v>
+        <v>0.8361791340601593</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.8109781860733288</v>
+        <v>0.8094045108170258</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.8587593794535914</v>
+        <v>0.8596742070678867</v>
       </c>
     </row>
     <row r="9">
@@ -6461,19 +6461,19 @@
         <v>106751</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>89314</v>
+        <v>86648</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>128036</v>
+        <v>126164</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2301330241310174</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1925438353971242</v>
+        <v>0.186794797762343</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2760202878774736</v>
+        <v>0.2719841154737224</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>44</v>
@@ -6482,19 +6482,19 @@
         <v>32006</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>23263</v>
+        <v>23309</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>42630</v>
+        <v>42449</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.173161770112788</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.125861921393516</v>
+        <v>0.1261107560270461</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2306414720039403</v>
+        <v>0.2296617299469343</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>141</v>
@@ -6503,19 +6503,19 @@
         <v>138757</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>117842</v>
+        <v>117492</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>160892</v>
+        <v>161982</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.213900254335083</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1816591215651799</v>
+        <v>0.1811197265565808</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2480234669118012</v>
+        <v>0.2497039639724568</v>
       </c>
     </row>
     <row r="11">
@@ -6532,19 +6532,19 @@
         <v>357114</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>335829</v>
+        <v>337701</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>374551</v>
+        <v>377217</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7698669758689826</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7239797121225264</v>
+        <v>0.7280158845262777</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.8074561646028756</v>
+        <v>0.8132052022376571</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>241</v>
@@ -6553,19 +6553,19 @@
         <v>152827</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>142203</v>
+        <v>142384</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>161570</v>
+        <v>161524</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.8268382298872119</v>
+        <v>0.826838229887212</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.7693585279960595</v>
+        <v>0.770338270053066</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.8741380786064843</v>
+        <v>0.8738892439729543</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>622</v>
@@ -6574,19 +6574,19 @@
         <v>509941</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>487806</v>
+        <v>486716</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>530856</v>
+        <v>531206</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.7860997456649169</v>
+        <v>0.786099745664917</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7519765330881989</v>
+        <v>0.7502960360275429</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.81834087843482</v>
+        <v>0.8188802734434192</v>
       </c>
     </row>
     <row r="12">
@@ -6678,19 +6678,19 @@
         <v>223146</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>194259</v>
+        <v>195940</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>249672</v>
+        <v>254471</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2036560538004658</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1772919608446339</v>
+        <v>0.1788261556279548</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2278657923941555</v>
+        <v>0.2322452010077664</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>267</v>
@@ -6699,19 +6699,19 @@
         <v>180378</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>160630</v>
+        <v>159637</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200862</v>
+        <v>201207</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2155589929699793</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1919594990662028</v>
+        <v>0.1907726220480583</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2400383020799946</v>
+        <v>0.2404516024940496</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>471</v>
@@ -6720,19 +6720,19 @@
         <v>403523</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>367814</v>
+        <v>367755</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>440781</v>
+        <v>439344</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2088101652479352</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1903318274845637</v>
+        <v>0.1903011205581342</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2280899358174093</v>
+        <v>0.227345952026164</v>
       </c>
     </row>
     <row r="14">
@@ -6749,19 +6749,19 @@
         <v>872553</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>846027</v>
+        <v>841228</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>901440</v>
+        <v>899759</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.7963439461995343</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7721342076058445</v>
+        <v>0.7677547989922339</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.8227080391553663</v>
+        <v>0.8211738443720451</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>932</v>
@@ -6770,19 +6770,19 @@
         <v>656412</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>635928</v>
+        <v>635583</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>676160</v>
+        <v>677153</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.7844410070300206</v>
+        <v>0.7844410070300205</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.7599616979200055</v>
+        <v>0.7595483975059504</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.8080405009337973</v>
+        <v>0.8092273779519416</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1812</v>
@@ -6791,19 +6791,19 @@
         <v>1528966</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1491708</v>
+        <v>1493145</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1564675</v>
+        <v>1564734</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7911898347520647</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7719100641825907</v>
+        <v>0.7726540479738361</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.8096681725154363</v>
+        <v>0.8096988794418658</v>
       </c>
     </row>
     <row r="15">
@@ -6895,19 +6895,19 @@
         <v>100286</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>81565</v>
+        <v>80930</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>123443</v>
+        <v>121295</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1966978017825441</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1599791857144711</v>
+        <v>0.1587339732232249</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2421176209199605</v>
+        <v>0.2379040175064285</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>221</v>
@@ -6916,19 +6916,19 @@
         <v>151323</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>133758</v>
+        <v>132566</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>172636</v>
+        <v>172243</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1908621164294836</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1687082623448604</v>
+        <v>0.1672040623842031</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2177446457035838</v>
+        <v>0.2172492288881165</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>308</v>
@@ -6937,19 +6937,19 @@
         <v>251609</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>223823</v>
+        <v>224816</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>281709</v>
+        <v>280655</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.1931461018279898</v>
+        <v>0.1931461018279897</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1718166389579834</v>
+        <v>0.1725792041130922</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2162524424703272</v>
+        <v>0.2154436017439159</v>
       </c>
     </row>
     <row r="17">
@@ -6966,19 +6966,19 @@
         <v>409562</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>386405</v>
+        <v>388553</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>428283</v>
+        <v>428918</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.8033021982174557</v>
+        <v>0.803302198217456</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7578823790800395</v>
+        <v>0.7620959824935716</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.8400208142855289</v>
+        <v>0.8412660267767751</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>1015</v>
@@ -6987,19 +6987,19 @@
         <v>641514</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>620201</v>
+        <v>620594</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>659079</v>
+        <v>660271</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.8091378835705164</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7822553542964162</v>
+        <v>0.7827507711118837</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.8312917376551396</v>
+        <v>0.8327959376157972</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1422</v>
@@ -7008,19 +7008,19 @@
         <v>1051076</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1020976</v>
+        <v>1022030</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1078862</v>
+        <v>1077869</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.8068538981720103</v>
+        <v>0.8068538981720101</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7837475575296727</v>
+        <v>0.784556398256084</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.8281833610420165</v>
+        <v>0.8274207958869076</v>
       </c>
     </row>
     <row r="18">
@@ -7112,19 +7112,19 @@
         <v>34730</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>18689</v>
+        <v>18970</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>59712</v>
+        <v>60264</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.1546404302305067</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.08321573675141369</v>
+        <v>0.08446552320220796</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.2658735843994045</v>
+        <v>0.2683319329002951</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>154</v>
@@ -7133,19 +7133,19 @@
         <v>122111</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>103135</v>
+        <v>102888</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>145624</v>
+        <v>147346</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.1491442096414408</v>
+        <v>0.1491442096414409</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.1259677143602413</v>
+        <v>0.1256656901430628</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1778632512171014</v>
+        <v>0.179966344209136</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>168</v>
@@ -7154,19 +7154,19 @@
         <v>156841</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>129828</v>
+        <v>133354</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>187666</v>
+        <v>191493</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.1503273305961481</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.1244360058507089</v>
+        <v>0.1278154079223495</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1798721971471297</v>
+        <v>0.1835404248893135</v>
       </c>
     </row>
     <row r="20">
@@ -7183,19 +7183,19 @@
         <v>189858</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>164876</v>
+        <v>164324</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>205899</v>
+        <v>205618</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.8453595697694932</v>
+        <v>0.8453595697694931</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7341264156005952</v>
+        <v>0.7316680670997048</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9167842632485862</v>
+        <v>0.9155344767977921</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>973</v>
@@ -7204,19 +7204,19 @@
         <v>696631</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>673118</v>
+        <v>671396</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>715607</v>
+        <v>715854</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.8508557903585592</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.8221367487828987</v>
+        <v>0.820033655790864</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.8740322856397587</v>
+        <v>0.8743343098569374</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1063</v>
@@ -7225,19 +7225,19 @@
         <v>886490</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>855665</v>
+        <v>851838</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>913503</v>
+        <v>909977</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.849672669403852</v>
+        <v>0.8496726694038518</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.8201278028528697</v>
+        <v>0.8164595751106863</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.8755639941492903</v>
+        <v>0.8721845920776503</v>
       </c>
     </row>
     <row r="21">
@@ -7329,19 +7329,19 @@
         <v>632963</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>581146</v>
+        <v>585733</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>689936</v>
+        <v>685170</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.1909622663616871</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.1753293861976166</v>
+        <v>0.1767132234638254</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2081509599996526</v>
+        <v>0.2067129023576821</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>916</v>
@@ -7350,19 +7350,19 @@
         <v>643176</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>605599</v>
+        <v>607687</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>687893</v>
+        <v>687834</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.1820763975688215</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1714386978066815</v>
+        <v>0.172030006852106</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.194735288635865</v>
+        <v>0.1947185883087274</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1475</v>
@@ -7371,19 +7371,19 @@
         <v>1276139</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1214199</v>
+        <v>1214955</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1346782</v>
+        <v>1345694</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.1863779706044952</v>
+        <v>0.1863779706044953</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.1773318127799738</v>
+        <v>0.177442200224256</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.196695349759369</v>
+        <v>0.1965365014889409</v>
       </c>
     </row>
     <row r="23">
@@ -7400,19 +7400,19 @@
         <v>2681633</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>2624660</v>
+        <v>2629426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>2733450</v>
+        <v>2728863</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.8090377336383129</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.7918490400003475</v>
+        <v>0.7932870976423179</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.8246706138023833</v>
+        <v>0.8232867765361745</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>4188</v>
@@ -7421,19 +7421,19 @@
         <v>2889274</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>2844557</v>
+        <v>2844616</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>2926851</v>
+        <v>2924763</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.8179236024311786</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.8052647113641355</v>
+        <v>0.8052814116912727</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.8285613021933187</v>
+        <v>0.8279699931478939</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>6811</v>
@@ -7442,19 +7442,19 @@
         <v>5570907</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>5500264</v>
+        <v>5501352</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>5632847</v>
+        <v>5632091</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.8136220293955047</v>
+        <v>0.8136220293955048</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.8033046502406309</v>
+        <v>0.8034634985110591</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.8226681872200261</v>
+        <v>0.8225577997757436</v>
       </c>
     </row>
     <row r="24">
